--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639898.4070212578</v>
+        <v>637418.501317454</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,13 +665,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.0919165980944</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>118.0579154674791</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7.085048196142566</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>123.2408492003805</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>108.4721783769034</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>97.32228826427132</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>68.75775489363996</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>50.83347419161191</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,16 +1108,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>119.8620943363778</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>275.0428790940286</v>
       </c>
       <c r="F8" t="n">
-        <v>30.63857480648031</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>26.6692588683104</v>
       </c>
       <c r="X10" t="n">
-        <v>21.53276229584063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754676</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1427,7 +1427,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>277.4607323328442</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.1763179398242</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>41.55695577160839</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238295</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336595</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>34.44047701880694</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986318</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699774</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>33.2461711990994</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G34" t="n">
-        <v>29.24923305751249</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699795</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>45.17596778974899</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892451</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>47.84205650381972</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1768.94973892659</v>
+        <v>897.7254217792856</v>
       </c>
       <c r="C2" t="n">
-        <v>1399.987221986178</v>
+        <v>528.762904838874</v>
       </c>
       <c r="D2" t="n">
-        <v>1041.721523379428</v>
+        <v>170.4972062321235</v>
       </c>
       <c r="E2" t="n">
-        <v>655.9332707811834</v>
+        <v>170.4972062321235</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>170.4972062321235</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4343,37 +4343,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.593687005981</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270161</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.94973892659</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.94973892659</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1768.94973892659</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1768.94973892659</v>
+        <v>1284.325261843407</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429764</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744482</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330614</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506776</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2262.298126874724</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.1895564061562</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>348.2533734782492</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671841</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>745.1791073041735</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>517.1895564061562</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.1895564061562</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3227.300479928088</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3021.322732312311</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649823</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379709</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4668,28 +4668,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>659.4316570185999</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
         <v>310.0549803959803</v>
@@ -4720,22 +4720,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1302.938768680375</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621301</v>
+        <v>1048.254280474488</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621301</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621301</v>
+        <v>530.8475595395104</v>
       </c>
       <c r="Y7" t="n">
-        <v>659.4316570185999</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.30093260579</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C8" t="n">
-        <v>806.3384156653785</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="D8" t="n">
-        <v>448.072717058628</v>
+        <v>1063.934757721591</v>
       </c>
       <c r="E8" t="n">
-        <v>448.072717058628</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645724</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669912</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,22 +4899,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.780563451991</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>460.8443805240842</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>943.1160480830762</v>
       </c>
       <c r="X10" t="n">
-        <v>850.5731425955212</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="Y10" t="n">
-        <v>629.780563451991</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>742.422574620032</v>
       </c>
       <c r="G11" t="n">
         <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128767</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469744</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5106,19 +5106,19 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K12" t="n">
         <v>423.3203657894393</v>
@@ -5130,16 +5130,16 @@
         <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>2128.167016284654</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>677.2291802831428</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>677.2291802831428</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>554.8288591318052</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>406.9157655494121</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>260.0258180515017</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
-        <v>92.81162322608054</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
         <v>171.7937461156345</v>
@@ -5224,25 +5224,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.516429368669</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2140.837647083051</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1851.761433397778</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1597.076945191891</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1307.65977515493</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1079.670224256913</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>858.8776451133825</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327611</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048542</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925185</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704548</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806531</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630008</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5601,19 +5601,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,25 +5650,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5747,22 +5747,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2412.174722955203</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2192.573257978144</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1903.498031322342</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>990.5373202159259</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>821.601137288019</v>
+        <v>344.9174178121604</v>
       </c>
       <c r="D28" t="n">
-        <v>671.4844978756832</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>523.5714042932901</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>376.6814567953797</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>209.4853575102597</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6689,61 +6689,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597574</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597574</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>265.073174061847</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6868,40 +6868,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258101</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602299</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396412</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359451</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614341</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317904</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T37" t="n">
-        <v>2334.285089135947</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U37" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="38">
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>365.9405071576781</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>365.9405071576781</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7546,22 +7546,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241565</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>186.5911984019045</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245.7992528287398</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>219.784129143617</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>379.152890459911</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>110.1124749751914</v>
       </c>
     </row>
     <row r="5">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50.29152613729002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>50.2915261372907</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.43915507838813</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440902</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8770068749608</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856647</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>146.5858089828376</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24263,7 +24263,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823496</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.0485416471245</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890389</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G34" t="n">
-        <v>136.2749052347563</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823281</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>172.2294825375393</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>956751.1038526025</v>
+        <v>956751.1038526023</v>
       </c>
     </row>
     <row r="3">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1018082.409087693</v>
+        <v>1018082.409087692</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1018082.409087692</v>
+        <v>1018082.409087693</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1018082.409087693</v>
+        <v>1018082.409087692</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1018082.409087693</v>
+        <v>1018082.409087692</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503246</v>
+        <v>375475.6212503244</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
         <v>401339.8858190154</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="G2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="I2" t="n">
         <v>403573.2998450029</v>
@@ -26338,7 +26338,7 @@
         <v>403573.299845003</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="L2" t="n">
         <v>403573.2998450031</v>
@@ -26350,10 +26350,10 @@
         <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="P2" t="n">
         <v>403573.2998450032</v>
-      </c>
-      <c r="P2" t="n">
-        <v>403573.2998450031</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189855</v>
+        <v>313680.0588189857</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504127</v>
+        <v>11452.26311504109</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832924</v>
+        <v>81924.27863832933</v>
       </c>
       <c r="N3" t="n">
         <v>3077.017355704674</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97925.04507884866</v>
+        <v>97925.04507884853</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312012</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
         <v>9940.611700543546</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26436,7 +26436,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-930138.9798442887</v>
+        <v>-930314.2061626978</v>
       </c>
       <c r="C6" t="n">
-        <v>10014.0236655224</v>
+        <v>10014.02366552215</v>
       </c>
       <c r="D6" t="n">
-        <v>213452.7652776284</v>
+        <v>213452.765277628</v>
       </c>
       <c r="E6" t="n">
-        <v>-22422.91321435205</v>
+        <v>-22468.81820991793</v>
       </c>
       <c r="F6" t="n">
-        <v>281051.3625842858</v>
+        <v>281016.6246588501</v>
       </c>
       <c r="G6" t="n">
-        <v>292503.6256993272</v>
+        <v>292468.8877738914</v>
       </c>
       <c r="H6" t="n">
-        <v>292503.6256993272</v>
+        <v>292468.8877738912</v>
       </c>
       <c r="I6" t="n">
-        <v>292503.6256993269</v>
+        <v>292468.8877738912</v>
       </c>
       <c r="J6" t="n">
-        <v>124898.4478893444</v>
+        <v>124863.7099639088</v>
       </c>
       <c r="K6" t="n">
-        <v>243393.5329932725</v>
+        <v>243358.7950678368</v>
       </c>
       <c r="L6" t="n">
-        <v>292503.6256993271</v>
+        <v>292468.8877738913</v>
       </c>
       <c r="M6" t="n">
-        <v>210579.3470609978</v>
+        <v>210544.6091355621</v>
       </c>
       <c r="N6" t="n">
-        <v>289426.6083436224</v>
+        <v>289391.8704181867</v>
       </c>
       <c r="O6" t="n">
-        <v>292503.6256993272</v>
+        <v>292468.8877738914</v>
       </c>
       <c r="P6" t="n">
-        <v>292503.625699327</v>
+        <v>292468.8877738914</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>268.2643481230875</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>190.8166233022538</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237138</v>
+        <v>328.7438349237144</v>
       </c>
       <c r="F4" t="n">
         <v>12.56299777364143</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237141</v>
+        <v>328.7438349237144</v>
       </c>
       <c r="N4" t="n">
         <v>12.56299777364143</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022538</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237138</v>
+        <v>328.7438349237144</v>
       </c>
       <c r="N4" t="n">
         <v>12.56299777364143</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136.9345888347407</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>293.4897873054748</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>163.2821491362105</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>11.86547352390451</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>300.9733457848291</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>116.4133469070159</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>166.3497438692351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>106.8874909782331</v>
       </c>
       <c r="F8" t="n">
-        <v>376.2374709352311</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>259.8537394682806</v>
       </c>
       <c r="X10" t="n">
-        <v>204.1768930931965</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,10 +28324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28542,10 +28542,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="W16" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29940,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30198,7 +30198,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31850,19 +31850,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>571.4938338238237</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,13 +33029,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33202,7 +33202,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33737,13 +33737,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34138,13 +34138,13 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676414</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34793,10 +34793,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>303.0719207327591</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>428.8975893793793</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>451.847874760311</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37163,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899029</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060454</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37786,13 +37786,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
